--- a/marsframework/MarsFramework/ExcelData/TestData.xlsx
+++ b/marsframework/MarsFramework/ExcelData/TestData.xlsx
@@ -8,22 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\CompetitionTask\marsframework\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CA57F8-5F23-4D68-AFFC-702486C46280}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34DB0E5-1794-4CB5-8E77-D71EC7267255}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3630" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2640" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="3" r:id="rId1"/>
     <sheet name="SignIn" sheetId="1" r:id="rId2"/>
-    <sheet name="Profile" sheetId="2" r:id="rId3"/>
-    <sheet name="ShareSkill" sheetId="4" r:id="rId4"/>
+    <sheet name="ShareSkill" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>Url</t>
   </si>
@@ -34,51 +33,9 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Skill</t>
-  </si>
-  <si>
-    <t>Automation Testing</t>
-  </si>
-  <si>
-    <t>University</t>
-  </si>
-  <si>
-    <t>Degree</t>
-  </si>
-  <si>
-    <t>Certificate</t>
-  </si>
-  <si>
-    <t>ISTQB</t>
-  </si>
-  <si>
-    <t>CertifiedFrom</t>
-  </si>
-  <si>
-    <t>ANZTB</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>AvailableTime</t>
-  </si>
-  <si>
-    <t>Full time</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
     <t>FirstName</t>
   </si>
   <si>
@@ -91,21 +48,6 @@
     <t>ConfirmPswd</t>
   </si>
   <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Melbourne</t>
-  </si>
-  <si>
-    <t>Amrita School Of Engineering</t>
-  </si>
-  <si>
-    <t>B.Tech</t>
-  </si>
-  <si>
-    <t>3 years as Oracle Developer and 2 years as Project Management Operations Lead</t>
-  </si>
-  <si>
     <t>http://localhost:5000/</t>
   </si>
   <si>
@@ -166,12 +108,6 @@
     <t>Macedo</t>
   </si>
   <si>
-    <t>Help wannabe test analysts the basics of Selenium Webdriver using C#</t>
-  </si>
-  <si>
-    <t>Selenium Webdriver using C#</t>
-  </si>
-  <si>
     <t>Programming &amp; Tech</t>
   </si>
   <si>
@@ -187,10 +123,19 @@
     <t>automation</t>
   </si>
   <si>
-    <t>api_testing</t>
-  </si>
-  <si>
     <t>Online</t>
+  </si>
+  <si>
+    <t>Selenium Webdriver using Csharp</t>
+  </si>
+  <si>
+    <t>Help wannabe test analysts the basics of Selenium Webdriver using Csharp</t>
+  </si>
+  <si>
+    <t>api</t>
+  </si>
+  <si>
+    <t>EDITED</t>
   </si>
 </sst>
 </file>
@@ -613,36 +558,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -681,13 +626,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -701,106 +646,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C472CE7-E965-4341-8D76-93C9B1BFF6C4}">
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
-    <col min="10" max="10" width="52.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C472CE7-E965-4341-8D76-93C9B1BFF6C4}">
-  <dimension ref="A1:P2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
-    <col min="2" max="2" width="63.42578125" customWidth="1"/>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
+    <col min="2" max="2" width="77" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
@@ -818,75 +674,75 @@
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="H2" s="6">
         <v>44114</v>
@@ -895,7 +751,7 @@
         <v>44124</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="K2" s="3">
         <v>0.5</v>
@@ -904,13 +760,18 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="M2" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="N2" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="P2" t="s">
-        <v>44</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/marsframework/MarsFramework/ExcelData/TestData.xlsx
+++ b/marsframework/MarsFramework/ExcelData/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\CompetitionTask\marsframework\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34DB0E5-1794-4CB5-8E77-D71EC7267255}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA86B3FF-20AE-4F33-AAB2-757356D05182}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2640" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-3630" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="3" r:id="rId1"/>
@@ -650,7 +650,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,10 +745,10 @@
         <v>33</v>
       </c>
       <c r="H2" s="6">
-        <v>44114</v>
+        <v>44479</v>
       </c>
       <c r="I2" s="6">
-        <v>44124</v>
+        <v>44489</v>
       </c>
       <c r="J2" t="s">
         <v>31</v>
